--- a/Metricas-Codigo/LEI-122704-Classes.xlsx
+++ b/Metricas-Codigo/LEI-122704-Classes.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jpava\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{F6443098-3D67-47CA-AFDC-DE0B8E746495}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DA6F335A-B634-44A9-9D8D-8C277697F64F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{F1A5B918-E918-48CC-BC5D-43B0BBF71F6D}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="46">
   <si>
     <t>Class Name</t>
   </si>
@@ -160,6 +160,9 @@
   </si>
   <si>
     <t>Problemas:</t>
+  </si>
+  <si>
+    <t>Amarelo</t>
   </si>
 </sst>
 </file>
@@ -1023,7 +1026,7 @@
   <dimension ref="A1:AD6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+      <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1316,6 +1319,9 @@
       <c r="B6" t="s">
         <v>27</v>
       </c>
+      <c r="C6" t="s">
+        <v>45</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
